--- a/Documentation/Module 2- Week8 Assignment.xlsx
+++ b/Documentation/Module 2- Week8 Assignment.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gauridhumal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gauridhumal/Development Projects/UOL-PROJECTs/eLearning/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C65AB6E-7820-9449-9EEA-6C37B6E36F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BB732D-7AC6-C444-AB01-699CE22F0365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{AB39D199-576A-F046-8111-44358633C864}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{AB39D199-576A-F046-8111-44358633C864}"/>
   </bookViews>
   <sheets>
     <sheet name="API design" sheetId="1" r:id="rId1"/>
     <sheet name="Error Codes" sheetId="2" r:id="rId2"/>
+    <sheet name="Final List of error codes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="176">
   <si>
     <t>Actor</t>
   </si>
@@ -529,6 +530,75 @@
 "apiVersion":1,
 "time": "2015-03-22T11:42:25.943Z"
 }</t>
+  </si>
+  <si>
+    <t>{
+  "studentId":1,
+   "courseId": 1
+}</t>
+  </si>
+  <si>
+    <t>Include Filtering, Sorting, and Pagination</t>
+  </si>
+  <si>
+    <t>Update the course related to course_id and set the status  </t>
+  </si>
+  <si>
+    <t>Create studentid and course id</t>
+  </si>
+  <si>
+    <t>Update student marks</t>
+  </si>
+  <si>
+    <t>SQL Query</t>
+  </si>
+  <si>
+    <t>SELECT * FROM mydb.courses where isAvailable=0 limit 5</t>
+  </si>
+  <si>
+    <t>SELECT c.Title, u.Name
+FROM mydb.courses AS c, mydb.users AS u
+WHERE c.CourseID=1 AND u.UserID=c.TeacherId;</t>
+  </si>
+  <si>
+    <t>INSERT INTO mydb.enrolments (CourseID,UserID)
+VALUES (1,16);</t>
+  </si>
+  <si>
+    <t>UPDATE mydb.enrolments
+SET Mark = 68
+WHERE CourseID=1 and UserID=16;</t>
+  </si>
+  <si>
+    <t>UPDATE mydb.courses
+SET TeacherId = 6
+WHERE CourseID=5</t>
+  </si>
+  <si>
+    <t>UPDATE mydb.courses
+SET isAvailable = 1
+WHERE CourseID=5</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Gauri</t>
+  </si>
+  <si>
+    <t>Partial Successful - Filtering error</t>
+  </si>
+  <si>
+    <t>Object not found</t>
+  </si>
+  <si>
+    <t>Invalid format or value</t>
+  </si>
+  <si>
+    <t>Role Error</t>
+  </si>
+  <si>
+    <t>Database Connection Error</t>
   </si>
   <si>
     <t>{
@@ -547,64 +617,7 @@
          "assignedTeacherid":3,
          "teacherName":"xyz"
       }   ]
-"count":2,
-"moreDataAvailable":True,
-"remainingRecords":10
 }</t>
-  </si>
-  <si>
-    <t>{
-  "studentId":1,
-   "courseId": 1
-}</t>
-  </si>
-  <si>
-    <t>Include Filtering, Sorting, and Pagination</t>
-  </si>
-  <si>
-    <t>Update the course related to course_id and set the status  </t>
-  </si>
-  <si>
-    <t>Create studentid and course id</t>
-  </si>
-  <si>
-    <t>Update student marks</t>
-  </si>
-  <si>
-    <t>SQL Query</t>
-  </si>
-  <si>
-    <t>SELECT * FROM mydb.courses where isAvailable=0 limit 5</t>
-  </si>
-  <si>
-    <t>SELECT c.Title, u.Name
-FROM mydb.courses AS c, mydb.users AS u
-WHERE c.CourseID=1 AND u.UserID=c.TeacherId;</t>
-  </si>
-  <si>
-    <t>INSERT INTO mydb.enrolments (CourseID,UserID)
-VALUES (1,16);</t>
-  </si>
-  <si>
-    <t>UPDATE mydb.enrolments
-SET Mark = 68
-WHERE CourseID=1 and UserID=16;</t>
-  </si>
-  <si>
-    <t>UPDATE mydb.courses
-SET TeacherId = 6
-WHERE CourseID=5</t>
-  </si>
-  <si>
-    <t>UPDATE mydb.courses
-SET isAvailable = 1
-WHERE CourseID=5</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Gauri</t>
   </si>
 </sst>
 </file>
@@ -691,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,12 +727,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5BD3D3-A060-3D49-9D22-162B85AA3C2E}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16"/>
@@ -1089,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>35</v>
@@ -1125,13 +1139,13 @@
         <v>148</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>150</v>
@@ -1143,7 +1157,7 @@
         <v>155</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="153">
@@ -1172,13 +1186,13 @@
         <v>145</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>151</v>
@@ -1190,10 +1204,10 @@
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="340">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="289">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -1221,19 +1235,19 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="153">
@@ -1264,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>146</v>
@@ -1276,7 +1290,7 @@
         <v>155</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="153">
@@ -1305,16 +1319,16 @@
         <v>143</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>154</v>
@@ -1323,7 +1337,7 @@
         <v>155</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="153">
@@ -1350,13 +1364,13 @@
         <v>144</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>153</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>152</v>
@@ -1368,7 +1382,7 @@
         <v>155</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1393,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B8EB95-6119-BD4A-959C-DBB51AAF224C}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1443,12 +1457,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="17">
       <c r="A5" s="2" t="s">
@@ -1482,7 +1496,7 @@
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1496,7 +1510,7 @@
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1538,7 +1552,7 @@
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1546,7 +1560,7 @@
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1560,7 +1574,7 @@
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1685,12 +1699,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="17">
       <c r="A27" s="2" t="s">
@@ -1735,12 +1749,12 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" ht="17">
       <c r="A32" s="2" t="s">
@@ -1821,4 +1835,113 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57882AA-98CA-8F4D-877E-6626E738048D}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>